--- a/Excel/Carga DB Postgres/Egreso - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Egreso - cargado.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
   <si>
     <t>idegreso</t>
   </si>
@@ -289,6 +289,18 @@
   </si>
   <si>
     <t>2017-01-28-18:35:26</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>EXT</t>
   </si>
 </sst>
 </file>
@@ -623,7 +635,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -700,8 +712,8 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -735,8 +747,8 @@
       <c r="J3">
         <v>2</v>
       </c>
-      <c r="K3">
-        <v>2</v>
+      <c r="K3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -770,8 +782,8 @@
       <c r="J4">
         <v>3</v>
       </c>
-      <c r="K4">
-        <v>3</v>
+      <c r="K4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -805,8 +817,8 @@
       <c r="J5">
         <v>4</v>
       </c>
-      <c r="K5">
-        <v>2</v>
+      <c r="K5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -840,8 +852,8 @@
       <c r="J6">
         <v>5</v>
       </c>
-      <c r="K6">
-        <v>1</v>
+      <c r="K6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -875,8 +887,8 @@
       <c r="J7">
         <v>26</v>
       </c>
-      <c r="K7">
-        <v>4</v>
+      <c r="K7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -910,8 +922,8 @@
       <c r="J8">
         <v>27</v>
       </c>
-      <c r="K8">
-        <v>2</v>
+      <c r="K8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -945,8 +957,8 @@
       <c r="J9">
         <v>28</v>
       </c>
-      <c r="K9">
-        <v>3</v>
+      <c r="K9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -980,8 +992,8 @@
       <c r="J10">
         <v>29</v>
       </c>
-      <c r="K10">
-        <v>1</v>
+      <c r="K10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1015,8 +1027,8 @@
       <c r="J11">
         <v>30</v>
       </c>
-      <c r="K11">
-        <v>4</v>
+      <c r="K11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1050,8 +1062,8 @@
       <c r="J12">
         <v>51</v>
       </c>
-      <c r="K12">
-        <v>2</v>
+      <c r="K12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1085,8 +1097,8 @@
       <c r="J13">
         <v>52</v>
       </c>
-      <c r="K13">
-        <v>3</v>
+      <c r="K13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1120,8 +1132,8 @@
       <c r="J14">
         <v>53</v>
       </c>
-      <c r="K14">
-        <v>1</v>
+      <c r="K14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1155,8 +1167,8 @@
       <c r="J15">
         <v>54</v>
       </c>
-      <c r="K15">
-        <v>4</v>
+      <c r="K15" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1190,8 +1202,8 @@
       <c r="J16">
         <v>55</v>
       </c>
-      <c r="K16">
-        <v>2</v>
+      <c r="K16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1225,8 +1237,8 @@
       <c r="J17">
         <v>86</v>
       </c>
-      <c r="K17">
-        <v>2</v>
+      <c r="K17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1260,8 +1272,8 @@
       <c r="J18">
         <v>87</v>
       </c>
-      <c r="K18">
-        <v>3</v>
+      <c r="K18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1295,8 +1307,8 @@
       <c r="J19">
         <v>88</v>
       </c>
-      <c r="K19">
-        <v>1</v>
+      <c r="K19" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1330,8 +1342,8 @@
       <c r="J20">
         <v>89</v>
       </c>
-      <c r="K20">
-        <v>1</v>
+      <c r="K20" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1365,8 +1377,8 @@
       <c r="J21">
         <v>90</v>
       </c>
-      <c r="K21">
-        <v>1</v>
+      <c r="K21" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Carga DB Postgres/Egreso - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Egreso - cargado.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
-  <si>
-    <t>idegreso</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
   <si>
     <t>fechahora</t>
   </si>
@@ -632,21 +629,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -677,708 +674,645 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>32664508</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2">
-        <v>32664508</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" t="s">
-        <v>70</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3">
+        <v>32314054</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3">
-        <v>32314054</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" t="s">
-        <v>70</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
+      <c r="J3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4">
+        <v>25745226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4">
-        <v>25745226</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" t="s">
-        <v>70</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
+      <c r="J4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5">
+        <v>31787089</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5">
-        <v>31787089</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" t="s">
-        <v>70</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
+      <c r="J5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6">
+        <v>24640767</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6">
-        <v>24640767</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>70</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7">
+        <v>33083663</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8">
+        <v>33057353</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7">
-        <v>33083663</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9">
+        <v>24548664</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>28611835</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11">
+        <v>32418577</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12">
+        <v>27080764</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13">
+        <v>30024794</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14">
+        <v>21774405</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>53</v>
+      </c>
+      <c r="J14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15">
+        <v>24369150</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>54</v>
+      </c>
+      <c r="J15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16">
+        <v>21914251</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <v>26570513</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7">
+      <c r="I17">
+        <v>86</v>
+      </c>
+      <c r="J17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18">
+        <v>33438037</v>
+      </c>
+      <c r="C18" t="s">
         <v>26</v>
       </c>
-      <c r="K7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8">
-        <v>33057353</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-      <c r="J8">
+      <c r="I18">
+        <v>87</v>
+      </c>
+      <c r="J18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <v>25033923</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="K8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9">
-        <v>24548664</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I19">
+        <v>88</v>
+      </c>
+      <c r="J19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20">
+        <v>30619769</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
         <v>38</v>
       </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-      <c r="J9">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10">
-        <v>28611835</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10">
-        <v>9</v>
-      </c>
-      <c r="J10">
+      <c r="I20">
+        <v>89</v>
+      </c>
+      <c r="J20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <v>25571880</v>
+      </c>
+      <c r="C21" t="s">
         <v>29</v>
       </c>
-      <c r="K10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11">
-        <v>32418577</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <v>30</v>
-      </c>
-      <c r="K11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12">
-        <v>27080764</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12">
-        <v>11</v>
-      </c>
-      <c r="J12">
-        <v>51</v>
-      </c>
-      <c r="K12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13">
-        <v>30024794</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13">
-        <v>12</v>
-      </c>
-      <c r="J13">
-        <v>52</v>
-      </c>
-      <c r="K13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14">
-        <v>21774405</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14">
-        <v>13</v>
-      </c>
-      <c r="J14">
-        <v>53</v>
-      </c>
-      <c r="K14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15">
-        <v>24369150</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15">
-        <v>14</v>
-      </c>
-      <c r="J15">
-        <v>54</v>
-      </c>
-      <c r="K15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16">
-        <v>21914251</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16">
-        <v>15</v>
-      </c>
-      <c r="J16">
-        <v>55</v>
-      </c>
-      <c r="K16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17">
-        <v>26570513</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17">
-        <v>16</v>
-      </c>
-      <c r="J17">
-        <v>86</v>
-      </c>
-      <c r="K17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18">
-        <v>33438037</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18">
-        <v>17</v>
-      </c>
-      <c r="J18">
-        <v>87</v>
-      </c>
-      <c r="K18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19">
-        <v>25033923</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19">
-        <v>18</v>
-      </c>
-      <c r="J19">
-        <v>88</v>
-      </c>
-      <c r="K19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20">
-        <v>30619769</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20">
-        <v>19</v>
-      </c>
-      <c r="J20">
-        <v>89</v>
-      </c>
-      <c r="K20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="I21">
         <v>90</v>
       </c>
-      <c r="C21">
-        <v>25571880</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21">
-        <v>20</v>
-      </c>
-      <c r="J21">
+      <c r="J21" t="s">
         <v>90</v>
-      </c>
-      <c r="K21" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Carga DB Postgres/Egreso - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Egreso - cargado.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" calcMode="manual"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="96">
   <si>
     <t>fechahora</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>EXT</t>
+  </si>
+  <si>
+    <t>2017-11-07-20:00:00</t>
+  </si>
+  <si>
+    <t>2017-11-07-20:00:10</t>
   </si>
 </sst>
 </file>
@@ -629,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1312,6 +1318,70 @@
         <v>90</v>
       </c>
       <c r="J21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22">
+        <v>32314054</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>121</v>
+      </c>
+      <c r="J22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23">
+        <v>25745226</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>122</v>
+      </c>
+      <c r="J23" t="s">
         <v>90</v>
       </c>
     </row>
